--- a/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>420</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>280</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>100</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>100</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>360</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>600</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>120</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>1760</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>240</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>40</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>80</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>80</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>520</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>40</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>280</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>80</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>560</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>280</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>400</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>480</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>480</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>960</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>1880</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>240</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>680</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1240</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>400</v>

--- a/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,145 +468,129 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>600</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1760</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>280</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B21" t="n">
         <v>400</v>
       </c>
     </row>
@@ -654,7 +638,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">

--- a/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -621,7 +622,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,411 @@
       </c>
       <c r="B10" t="n">
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>417</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-102.6513569269522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>903.1316906901793</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>413</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-102.5834085198147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>903.9389462467938</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>402</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-76.65664035817288</v>
+      </c>
+      <c r="D4" t="n">
+        <v>889.9372722900764</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>390</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-107.4282057580699</v>
+      </c>
+      <c r="D5" t="n">
+        <v>907.5728267546461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>383</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-95.23222200254637</v>
+      </c>
+      <c r="D6" t="n">
+        <v>871.4457600413206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>367</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-131.010322688037</v>
+      </c>
+      <c r="D7" t="n">
+        <v>820.4762827237058</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>363</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-103.9318267299962</v>
+      </c>
+      <c r="D8" t="n">
+        <v>853.0573880738227</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>344</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-133.2161047396259</v>
+      </c>
+      <c r="D9" t="n">
+        <v>859.8362344488233</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>313</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-165.1283852103562</v>
+      </c>
+      <c r="D10" t="n">
+        <v>786.0654451202788</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>310</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-223.2092030224242</v>
+      </c>
+      <c r="D11" t="n">
+        <v>798.071762077882</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>306</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-171.9326104120985</v>
+      </c>
+      <c r="D12" t="n">
+        <v>807.2476896046303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>302</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-176.0005177378167</v>
+      </c>
+      <c r="D13" t="n">
+        <v>798.775907396898</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>294</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-207.1877559132853</v>
+      </c>
+      <c r="D14" t="n">
+        <v>809.6922526781295</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>290</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-198.1399079107479</v>
+      </c>
+      <c r="D15" t="n">
+        <v>789.4091392942778</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>286</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-229.5507129685772</v>
+      </c>
+      <c r="D16" t="n">
+        <v>772.3795413645577</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>283</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-199.69484823218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>789.3808675344171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>279</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-208.455847389776</v>
+      </c>
+      <c r="D18" t="n">
+        <v>743.3020659938172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-197.8689034359554</v>
+      </c>
+      <c r="D19" t="n">
+        <v>781.4343836311368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>271</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-205.7718692454265</v>
+      </c>
+      <c r="D20" t="n">
+        <v>762.3217572668126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>267</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-242.1863780630948</v>
+      </c>
+      <c r="D21" t="n">
+        <v>707.9732706125274</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>263</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-243.3855166894361</v>
+      </c>
+      <c r="D22" t="n">
+        <v>737.0714224098183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>260</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-212.3948310429264</v>
+      </c>
+      <c r="D23" t="n">
+        <v>755.5463683481086</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>256</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-248.3195200988411</v>
+      </c>
+      <c r="D24" t="n">
+        <v>753.8409012259118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>252</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-254.9959882282693</v>
+      </c>
+      <c r="D25" t="n">
+        <v>710.5807866625681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>248</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-268.5067697372983</v>
+      </c>
+      <c r="D26" t="n">
+        <v>742.5677609709702</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>244</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-222.3260345720866</v>
+      </c>
+      <c r="D27" t="n">
+        <v>727.9934233826754</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
+++ b/po_analysis_by_asin/B0CVHD8PLP_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>417</v>
       </c>
-      <c r="C2" t="n">
-        <v>-102.6513569269522</v>
-      </c>
-      <c r="D2" t="n">
-        <v>903.1316906901793</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>413</v>
       </c>
-      <c r="C3" t="n">
-        <v>-102.5834085198147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>903.9389462467938</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>402</v>
       </c>
-      <c r="C4" t="n">
-        <v>-76.65664035817288</v>
-      </c>
-      <c r="D4" t="n">
-        <v>889.9372722900764</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>390</v>
       </c>
-      <c r="C5" t="n">
-        <v>-107.4282057580699</v>
-      </c>
-      <c r="D5" t="n">
-        <v>907.5728267546461</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>383</v>
       </c>
-      <c r="C6" t="n">
-        <v>-95.23222200254637</v>
-      </c>
-      <c r="D6" t="n">
-        <v>871.4457600413206</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>367</v>
       </c>
-      <c r="C7" t="n">
-        <v>-131.010322688037</v>
-      </c>
-      <c r="D7" t="n">
-        <v>820.4762827237058</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>363</v>
       </c>
-      <c r="C8" t="n">
-        <v>-103.9318267299962</v>
-      </c>
-      <c r="D8" t="n">
-        <v>853.0573880738227</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>344</v>
       </c>
-      <c r="C9" t="n">
-        <v>-133.2161047396259</v>
-      </c>
-      <c r="D9" t="n">
-        <v>859.8362344488233</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>313</v>
       </c>
-      <c r="C10" t="n">
-        <v>-165.1283852103562</v>
-      </c>
-      <c r="D10" t="n">
-        <v>786.0654451202788</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>310</v>
       </c>
-      <c r="C11" t="n">
-        <v>-223.2092030224242</v>
-      </c>
-      <c r="D11" t="n">
-        <v>798.071762077882</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>306</v>
       </c>
-      <c r="C12" t="n">
-        <v>-171.9326104120985</v>
-      </c>
-      <c r="D12" t="n">
-        <v>807.2476896046303</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>302</v>
       </c>
-      <c r="C13" t="n">
-        <v>-176.0005177378167</v>
-      </c>
-      <c r="D13" t="n">
-        <v>798.775907396898</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>294</v>
       </c>
-      <c r="C14" t="n">
-        <v>-207.1877559132853</v>
-      </c>
-      <c r="D14" t="n">
-        <v>809.6922526781295</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>290</v>
       </c>
-      <c r="C15" t="n">
-        <v>-198.1399079107479</v>
-      </c>
-      <c r="D15" t="n">
-        <v>789.4091392942778</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>286</v>
       </c>
-      <c r="C16" t="n">
-        <v>-229.5507129685772</v>
-      </c>
-      <c r="D16" t="n">
-        <v>772.3795413645577</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>283</v>
       </c>
-      <c r="C17" t="n">
-        <v>-199.69484823218</v>
-      </c>
-      <c r="D17" t="n">
-        <v>789.3808675344171</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>279</v>
       </c>
-      <c r="C18" t="n">
-        <v>-208.455847389776</v>
-      </c>
-      <c r="D18" t="n">
-        <v>743.3020659938172</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>275</v>
       </c>
-      <c r="C19" t="n">
-        <v>-197.8689034359554</v>
-      </c>
-      <c r="D19" t="n">
-        <v>781.4343836311368</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>271</v>
       </c>
-      <c r="C20" t="n">
-        <v>-205.7718692454265</v>
-      </c>
-      <c r="D20" t="n">
-        <v>762.3217572668126</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>267</v>
       </c>
-      <c r="C21" t="n">
-        <v>-242.1863780630948</v>
-      </c>
-      <c r="D21" t="n">
-        <v>707.9732706125274</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>263</v>
       </c>
-      <c r="C22" t="n">
-        <v>-243.3855166894361</v>
-      </c>
-      <c r="D22" t="n">
-        <v>737.0714224098183</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>260</v>
       </c>
-      <c r="C23" t="n">
-        <v>-212.3948310429264</v>
-      </c>
-      <c r="D23" t="n">
-        <v>755.5463683481086</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>256</v>
       </c>
-      <c r="C24" t="n">
-        <v>-248.3195200988411</v>
-      </c>
-      <c r="D24" t="n">
-        <v>753.8409012259118</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>252</v>
       </c>
-      <c r="C25" t="n">
-        <v>-254.9959882282693</v>
-      </c>
-      <c r="D25" t="n">
-        <v>710.5807866625681</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1082,12 +928,6 @@
       <c r="B26" t="n">
         <v>248</v>
       </c>
-      <c r="C26" t="n">
-        <v>-268.5067697372983</v>
-      </c>
-      <c r="D26" t="n">
-        <v>742.5677609709702</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1095,12 +935,6 @@
       </c>
       <c r="B27" t="n">
         <v>244</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-222.3260345720866</v>
-      </c>
-      <c r="D27" t="n">
-        <v>727.9934233826754</v>
       </c>
     </row>
   </sheetData>
